--- a/price2.xlsx
+++ b/price2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DFF5C2-7CF6-9C4E-AB57-F48382AEC370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EE7BC1-0C44-F54C-ABDF-883CDEDAD584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,24 +1017,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,60 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1867,19 +1867,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="59">
@@ -1950,21 +1950,11 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="91">
-        <v>0</v>
-      </c>
-      <c r="B2" s="90">
-        <v>0</v>
-      </c>
-      <c r="C2" s="89">
-        <v>0</v>
-      </c>
-      <c r="D2" s="89">
-        <v>0</v>
-      </c>
-      <c r="E2" s="89">
-        <v>0</v>
-      </c>
+      <c r="A2" s="67"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="59" t="str">
         <f>요금제!$C2</f>
         <v>5GX_슬림</v>
@@ -2061,9 +2051,15 @@
       <c r="B3" s="56">
         <v>1199000</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="C3" s="56">
+        <v>400000</v>
+      </c>
+      <c r="D3" s="56">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="56">
+        <v>200000</v>
+      </c>
       <c r="F3" s="57">
         <v>345000</v>
       </c>
@@ -2097,6 +2093,15 @@
       <c r="B4" s="56">
         <v>1000000</v>
       </c>
+      <c r="C4" s="56">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0</v>
+      </c>
       <c r="F4" s="57">
         <v>4242</v>
       </c>
@@ -2119,6 +2124,15 @@
       </c>
       <c r="B5" s="56">
         <v>1300000</v>
+      </c>
+      <c r="C5" s="56">
+        <v>0</v>
+      </c>
+      <c r="D5" s="56">
+        <v>0</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0</v>
       </c>
       <c r="F5" s="57">
         <v>42442</v>
@@ -2166,70 +2180,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="87"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2247,7 +2261,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="85">
+      <c r="B6" s="82">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2290,7 +2304,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="69"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2344,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="69"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2370,7 +2384,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="86"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2424,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="70"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2454,58 +2468,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2513,12 +2527,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="80"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2550,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="69">
+      <c r="B17" s="83">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2580,7 +2594,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="69"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2635,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="69"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2676,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="69"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2703,7 +2717,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="70"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2783,6 +2797,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="G15:G16"/>
@@ -2799,10 +2817,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
